--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H2">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>63.69344753961524</v>
+        <v>1.859851637931</v>
       </c>
       <c r="R2">
-        <v>573.2410278565371</v>
+        <v>16.738664741379</v>
       </c>
       <c r="S2">
-        <v>0.07554202359272505</v>
+        <v>0.002752384444159873</v>
       </c>
       <c r="T2">
-        <v>0.07554202359272505</v>
+        <v>0.002752384444159874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H3">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>59.30498118245745</v>
+        <v>29.65627285300122</v>
       </c>
       <c r="R3">
-        <v>533.744830642117</v>
+        <v>266.906455677011</v>
       </c>
       <c r="S3">
-        <v>0.07033719261098076</v>
+        <v>0.04388815882280045</v>
       </c>
       <c r="T3">
-        <v>0.07033719261098077</v>
+        <v>0.04388815882280047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H4">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>115.5076325733944</v>
+        <v>96.69822213671655</v>
       </c>
       <c r="R4">
-        <v>1039.568693160549</v>
+        <v>870.2839992304489</v>
       </c>
       <c r="S4">
-        <v>0.1369949444104448</v>
+        <v>0.1431031792853623</v>
       </c>
       <c r="T4">
-        <v>0.1369949444104448</v>
+        <v>0.1431031792853623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>102.5226914391816</v>
+        <v>5.986571135874001</v>
       </c>
       <c r="R5">
-        <v>922.704222952634</v>
+        <v>53.87914022286601</v>
       </c>
       <c r="S5">
-        <v>0.1215944790972624</v>
+        <v>0.00885949445223835</v>
       </c>
       <c r="T5">
-        <v>0.1215944790972624</v>
+        <v>0.008859494452238352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
-        <v>95.45889760157709</v>
+        <v>95.45889760157712</v>
       </c>
       <c r="R6">
-        <v>859.1300784141939</v>
+        <v>859.130078414194</v>
       </c>
       <c r="S6">
-        <v>0.1132166427365822</v>
+        <v>0.1412691095659205</v>
       </c>
       <c r="T6">
-        <v>0.1132166427365823</v>
+        <v>0.1412691095659205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>185.9242014781353</v>
+        <v>311.2564323560718</v>
       </c>
       <c r="R7">
-        <v>1673.317813303218</v>
+        <v>2801.307891204646</v>
       </c>
       <c r="S7">
-        <v>0.220510758281443</v>
+        <v>0.4606267215564509</v>
       </c>
       <c r="T7">
-        <v>0.220510758281443</v>
+        <v>0.460626721556451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H8">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N8">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q8">
-        <v>58.94916916150778</v>
+        <v>1.955491159965</v>
       </c>
       <c r="R8">
-        <v>530.5425224535701</v>
+        <v>17.599420439685</v>
       </c>
       <c r="S8">
-        <v>0.0699151906450103</v>
+        <v>0.002893920858852663</v>
       </c>
       <c r="T8">
-        <v>0.0699151906450103</v>
+        <v>0.002893920858852664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H9">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q9">
-        <v>54.88758267748555</v>
+        <v>31.18129329179611</v>
       </c>
       <c r="R9">
-        <v>493.98824409737</v>
+        <v>280.631639626165</v>
       </c>
       <c r="S9">
-        <v>0.0650980473775012</v>
+        <v>0.04614502837473653</v>
       </c>
       <c r="T9">
-        <v>0.06509804737750122</v>
+        <v>0.04614502837473655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H10">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N10">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q10">
-        <v>106.9039161018767</v>
+        <v>101.6707541161928</v>
       </c>
       <c r="R10">
-        <v>962.1352449168902</v>
+        <v>915.0367870457349</v>
       </c>
       <c r="S10">
-        <v>0.1267907212480503</v>
+        <v>0.1504620026394784</v>
       </c>
       <c r="T10">
-        <v>0.1267907212480503</v>
+        <v>0.1504620026394785</v>
       </c>
     </row>
   </sheetData>
